--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DataElement</t>
+    <t>element:Resource</t>
   </si>
   <si>
     <t>ID</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>urn:iso:std:iso:4217</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -1686,7 +1689,7 @@
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>76</v>
@@ -1704,7 +1707,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1724,13 +1727,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1755,7 +1758,7 @@
         <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>91</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>101</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>103</v>
@@ -2035,7 +2038,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>105</v>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>113</v>
@@ -2166,7 +2169,7 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>115</v>
@@ -2223,7 +2226,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2374,7 +2377,7 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>115</v>
@@ -2431,7 +2434,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-med-cost.xlsx
+++ b/branches/main/StructureDefinition-med-cost.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
